--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB080.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB080.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566919B0-A528-420B-9D49-62220AD82EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD4F0F1-FC6A-4E7F-B373-A35414DAC2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,6 @@
     <sheet name="條件" sheetId="11" r:id="rId5"/>
     <sheet name="欄位更新" sheetId="12" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$33</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -184,15 +181,6 @@
     <t>交易代碼</t>
   </si>
   <si>
-    <t>A 新增 C 異動 D刪除 ;
-每月正常報送資料(尚未上線時)僅限填A 代碼;發函更正(已上線)授信資料時，依下列狀況填A C D代碼：
-1. 新增資料時填A;
-2. 修改非key值欄位值時填C; 
-3. 刪除原報送資料時填D;
-4. 若為更改Key欄位值，請先以一筆D刪除原報送資料，再以A代碼報送一筆新增(異動後)資料</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>X(10)</t>
   </si>
   <si>
@@ -264,10 +252,6 @@
   </si>
   <si>
     <t>備用</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>擔保品類別代號表請參照附件九(本修訂版將原擔保品類別:信用保證機構保證細分為5項，05:：中小企業信用保證基金保證，06:農業信用保證基金保證、07:華僑貸款信用保證基金保證，08:國際合作發展基金會信用保證，09:原住民族綜合發展基金信用保證)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -497,14 +481,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 'Y':是，'N':否，填報本階額度是否屬循環性質</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y：可撤銷，N:不可撤銷</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>UpFacmNo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -851,6 +827,38 @@
   </si>
   <si>
     <t xml:space="preserve">                                  AND MF."FacmNo"    = WK."FacmNo"</t>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除
+每月正常報送資料(尚未上線時)僅限填A 代碼;發函更正(已上線)授信資料時，依下列狀況填A C D代碼：
+1. 新增資料時填A;
+2. 修改非key值欄位值時填C; 
+3. 刪除原報送資料時填D;
+4. 若為更改Key欄位值，請先以一筆D刪除原報送資料，再以A代碼報送一筆新增(異動後)資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>填報本階額度是否屬循環性質
+Y:是
+N:否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:可撤銷
+N:不可撤銷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>擔保品類別代號表請參照附件九(本修訂版將原擔保品類別：信用保證機構保證細分為5項，
+05:中小企業信用保證基金保證
+06:農業信用保證基金保證
+07:華僑貸款信用保證基金保證
+08:國際合作發展基金會信用保證
+09:原住民族綜合發展基金信用保證
+)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1171,6 +1179,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1182,39 +1223,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1235,31 +1243,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔 Work_B201"/>
-      <sheetName val="條件"/>
-      <sheetName val="欄位更新"/>
-      <sheetName val="B201-聯徵說明"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1586,10 +1569,10 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1600,32 +1583,32 @@
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71.5546875" style="17" customWidth="1"/>
-    <col min="8" max="9" width="6" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.88671875" style="36" customWidth="1"/>
+    <col min="8" max="9" width="6" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.88671875" style="32" customWidth="1"/>
     <col min="11" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="38"/>
       <c r="C1" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="34"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1635,82 +1618,82 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="35"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="40"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="40"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="40"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -1728,16 +1711,16 @@
         <v>9</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>115</v>
+        <v>70</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1745,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>25</v>
@@ -1758,10 +1741,10 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="36" t="s">
-        <v>117</v>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="32" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1769,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>3</v>
@@ -1782,16 +1765,16 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="40">
+        <v>88</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="36">
         <v>1</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>118</v>
+      <c r="J10" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1799,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>26</v>
@@ -1812,16 +1795,16 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="40">
+        <v>46</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="36">
         <v>2</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>119</v>
+      <c r="J11" s="32" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1829,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>27</v>
@@ -1842,24 +1825,24 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="40">
+        <v>109</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="36">
         <v>3</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="J12" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>28</v>
@@ -1872,16 +1855,16 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="40">
+        <v>197</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>121</v>
+      <c r="J13" s="32" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1889,10 +1872,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -1902,16 +1885,16 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="40">
+        <v>47</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="36">
         <v>4.2</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>122</v>
+      <c r="J14" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -1919,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
@@ -1932,16 +1915,16 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="40">
+        <v>90</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="36">
         <v>5</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>176</v>
+      <c r="J15" s="32" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1949,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
@@ -1962,16 +1945,16 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="40">
+        <v>93</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="36">
         <v>6</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>123</v>
+      <c r="J16" s="32" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -1979,10 +1962,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
@@ -1992,16 +1975,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="40">
+        <v>48</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="36">
         <v>7</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>177</v>
+      <c r="J17" s="32" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -2009,10 +1992,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>25</v>
@@ -2022,16 +2005,16 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="40">
+        <v>95</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="36">
         <v>8</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>178</v>
+      <c r="J18" s="32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2039,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>25</v>
@@ -2052,16 +2035,16 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="40">
+        <v>95</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="36">
         <v>9</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>124</v>
+      <c r="J19" s="32" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -2069,10 +2052,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>25</v>
@@ -2082,16 +2065,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="40">
+        <v>99</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="36">
         <v>10</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>179</v>
+      <c r="J20" s="32" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -2099,10 +2082,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>25</v>
@@ -2112,16 +2095,16 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="40">
+        <v>101</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="36">
         <v>11</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>180</v>
+      <c r="J21" s="32" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -2129,10 +2112,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -2142,16 +2125,16 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="40">
+        <v>198</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="36">
         <v>12</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>181</v>
+      <c r="J22" s="32" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -2159,10 +2142,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -2172,16 +2155,16 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="40">
+        <v>199</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="36">
         <v>13</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>182</v>
+      <c r="J23" s="32" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2189,10 +2172,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -2202,16 +2185,16 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="40">
+        <v>103</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="36">
         <v>14</v>
       </c>
-      <c r="J24" s="36" t="s">
-        <v>125</v>
+      <c r="J24" s="32" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -2219,10 +2202,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -2232,16 +2215,16 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="40">
+        <v>104</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="36">
         <v>15</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>183</v>
+      <c r="J25" s="32" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -2249,10 +2232,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -2262,27 +2245,27 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="40">
+        <v>105</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="36">
         <v>16</v>
       </c>
-      <c r="J26" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -2292,16 +2275,16 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="40">
+        <v>200</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="36">
         <v>17</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>184</v>
+      <c r="J27" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2309,10 +2292,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -2322,16 +2305,16 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="40">
+        <v>49</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="36">
         <v>18</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>122</v>
+      <c r="J28" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2339,10 +2322,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>25</v>
@@ -2352,16 +2335,16 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="40">
+        <v>108</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="36">
         <v>19</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>127</v>
+      <c r="J29" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -2382,9 +2365,9 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
@@ -2397,16 +2380,16 @@
         <v>21</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="9">
         <v>6</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -2426,9 +2409,9 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -2448,9 +2431,9 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -2535,7 +2518,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:XFD2 F28:G28 A34:XFD1048576 A1:B1 E1:XFD1 A4:XFD7 A3:B3 D3:XFD3 D14 F14 B30:XFD33 C9:I9 B12:F12 K14:XFD14 H25:H26 K25:XFD25 B25:F26 B29:F29 C28:D28 K29:XFD29 H29 C13:H13 C11:H11 H12 A8:I8 K8:XFD8 K9:XFD9 K11:XFD11 K12:XFD12 K13:XFD13 K26:XFD26 K28:XFD28 J19" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:XFD2 F28:G28 A34:XFD1048576 A1:B1 E1:XFD1 A4:XFD7 A3:B3 D3:XFD3 D14 F14 B30:XFD33 C9:I9 B12:F12 K14:XFD14 H25:H26 K25:XFD25 B25:F26 B29:F29 C28:D28 K29:XFD29 H29 C13:F13 C11:H11 H12 A8:I8 K8:XFD8 K9:XFD9 K11:XFD11 K12:XFD12 K13:XFD13 K26:XFD26 K28:XFD28 J19 H13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2593,24 +2576,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2629,226 +2612,226 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="1" width="142.33203125" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>138</v>
+      <c r="A28" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
+      <c r="A30" s="27"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="27"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="27"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="27"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
+      <c r="A35" s="27"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="27"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+      <c r="A38" s="27"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31"/>
+      <c r="A44" s="27"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31"/>
+      <c r="A46" s="27"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
+      <c r="A47" s="27"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31"/>
+      <c r="A48" s="27"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
+      <c r="A49" s="27"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
+      <c r="A50" s="27"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
+      <c r="A51" s="27"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
+      <c r="A52" s="27"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
+      <c r="A53" s="27"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
+      <c r="A54" s="27"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
+      <c r="A55" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2866,98 +2849,98 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.109375" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="136.109375" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>151</v>
+      <c r="A1" s="27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>138</v>
+      <c r="A18" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2976,128 +2959,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="193.88671875" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="193.88671875" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>175</v>
+      <c r="A1" s="27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
